--- a/MindManager3/Sec01-01-02.xlsx
+++ b/MindManager3/Sec01-01-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o334-my.sharepoint.com/personal/mskn55_iri-net_tokyo/Documents/git_repository_Duo/Sharing_Knowledge3/MindManager3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_01B38DF6B58100C0E1577FBC4CFE1893972AAF6F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB5A7D34-ABE4-4005-A73C-03BAB2296860}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{A26D9F9F-427D-424E-B5AC-3E9FBAEE9A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3706F6E4-B793-4F35-89EC-08394F8A54A6}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="16210" windowHeight="8360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="1500" windowWidth="17340" windowHeight="8360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec01-01-02_「中小企業向けサイバーセキュリティ対策" sheetId="1" r:id="rId1"/>
@@ -24363,9 +24363,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="7.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="16384" width="7.7265625" style="1"/>
+    <col min="1" max="16384" width="7.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="22.5">
